--- a/Notes/Results8-lines .xlsx
+++ b/Notes/Results8-lines .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kshitijbhatta/Desktop/Powergrid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E3760F-DD10-F140-B83F-F6D233E0F40B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E748175F-A174-D94F-8242-5E4822F7B33A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F15564B4-478A-5749-9F90-458B4D70CD3F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{F15564B4-478A-5749-9F90-458B4D70CD3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="39">
   <si>
     <t>BEFORE FALIURE</t>
   </si>
@@ -137,9 +137,6 @@
     <t>INDEX</t>
   </si>
   <si>
-    <t>Max flow value</t>
-  </si>
-  <si>
     <t>theta6-theta1</t>
   </si>
   <si>
@@ -147,6 +144,12 @@
   </si>
   <si>
     <t>Line 6-1</t>
+  </si>
+  <si>
+    <t>Max steady staet flow value</t>
+  </si>
+  <si>
+    <t>After faliure peak of thetaj-thetai</t>
   </si>
 </sst>
 </file>
@@ -993,10 +996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B205C97E-91D2-964B-9E2A-7A9AF5F69B57}">
-  <dimension ref="A2:S135"/>
+  <dimension ref="A2:S146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="L132" sqref="L132"/>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="99" workbookViewId="0">
+      <selection activeCell="K141" sqref="K141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1033,7 +1036,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -2077,7 +2080,7 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D49" s="7"/>
     </row>
@@ -3489,7 +3492,7 @@
     </row>
     <row r="126" spans="1:13">
       <c r="A126" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B126">
         <v>-0.11038961038961037</v>
@@ -3640,11 +3643,274 @@
     <row r="134" spans="1:9">
       <c r="B134" s="9"/>
       <c r="C134" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="B135" s="10"/>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="E137" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="B138" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" t="s">
+        <v>8</v>
+      </c>
+      <c r="D138" t="s">
+        <v>9</v>
+      </c>
+      <c r="E138" t="s">
+        <v>10</v>
+      </c>
+      <c r="F138" t="s">
+        <v>11</v>
+      </c>
+      <c r="G138" t="s">
+        <v>25</v>
+      </c>
+      <c r="H138" t="s">
+        <v>26</v>
+      </c>
+      <c r="I138" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C139">
+        <v>-0.20487083392928188</v>
+      </c>
+      <c r="D139">
+        <v>-0.10250550424905362</v>
+      </c>
+      <c r="E139">
+        <v>-0.1107270207377367</v>
+      </c>
+      <c r="F139">
+        <v>0.20125455390668701</v>
+      </c>
+      <c r="G139">
+        <v>0.24058255470918338</v>
+      </c>
+      <c r="H139">
+        <v>-0.14218550237839958</v>
+      </c>
+      <c r="I139">
+        <v>1.8532289933191864E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" t="s">
+        <v>21</v>
+      </c>
+      <c r="B140">
+        <v>-0.16945075880007418</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140">
+        <v>-8.5545331438643707E-2</v>
+      </c>
+      <c r="E140">
+        <v>-9.4098657564031074E-2</v>
+      </c>
+      <c r="F140">
+        <v>3.8426213924498999E-2</v>
+      </c>
+      <c r="G140">
+        <v>0.20307831456755121</v>
+      </c>
+      <c r="H140">
+        <v>-0.13711925005312159</v>
+      </c>
+      <c r="I140">
+        <v>-2.858969639494504E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" t="s">
+        <v>22</v>
+      </c>
+      <c r="B141">
+        <v>-0.13015973262726416</v>
+      </c>
+      <c r="C141">
+        <v>-9.2816868374931652E-2</v>
+      </c>
+      <c r="D141" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E141">
+        <v>-0.11293450760067117</v>
+      </c>
+      <c r="F141">
+        <v>5.3000159451290094E-2</v>
+      </c>
+      <c r="G141">
+        <v>0.15131162084611674</v>
+      </c>
+      <c r="H141">
+        <v>-0.17763408155046323</v>
+      </c>
+      <c r="I141">
+        <v>4.2183796660903154E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" t="s">
+        <v>36</v>
+      </c>
+      <c r="B142">
+        <v>-0.13372035581466726</v>
+      </c>
+      <c r="C142">
+        <v>-9.6261365016167763E-2</v>
+      </c>
+      <c r="D142">
+        <v>-0.1337709248619468</v>
+      </c>
+      <c r="E142" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F142">
+        <v>4.2701007481893594E-2</v>
+      </c>
+      <c r="G142">
+        <v>0.15340742464743992</v>
+      </c>
+      <c r="H142">
+        <v>-0.18928663182817368</v>
+      </c>
+      <c r="I142">
+        <v>-0.10508372764449239</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" t="s">
+        <v>23</v>
+      </c>
+      <c r="B143">
+        <v>-0.17152747980172867</v>
+      </c>
+      <c r="C143">
+        <v>-6.6881979288882454E-2</v>
+      </c>
+      <c r="D143">
+        <v>-6.0673986244645525E-2</v>
+      </c>
+      <c r="E143">
+        <v>-6.6158933432337363E-2</v>
+      </c>
+      <c r="F143" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G143">
+        <v>0.15770787094899372</v>
+      </c>
+      <c r="H143">
+        <v>-0.16144173942501214</v>
+      </c>
+      <c r="I143">
+        <v>-2.3025963489746431E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" t="s">
+        <v>24</v>
+      </c>
+      <c r="B144">
+        <v>-0.24693383574085351</v>
+      </c>
+      <c r="C144">
+        <v>-0.23340746497804959</v>
+      </c>
+      <c r="D144">
+        <v>0.14269198472495948</v>
+      </c>
+      <c r="E144">
+        <v>-6.4930158522723963E-2</v>
+      </c>
+      <c r="F144">
+        <v>-5.8883569891966497E-2</v>
+      </c>
+      <c r="G144" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H144">
+        <v>-0.39291703920813698</v>
+      </c>
+      <c r="I144">
+        <v>-0.11294764381855063</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" t="s">
+        <v>29</v>
+      </c>
+      <c r="B145">
+        <v>-0.10746865308717775</v>
+      </c>
+      <c r="C145">
+        <v>0.10955084043232878</v>
+      </c>
+      <c r="D145">
+        <v>-0.20327536371248539</v>
+      </c>
+      <c r="E145">
+        <v>-0.19065291257996878</v>
+      </c>
+      <c r="F145">
+        <v>0.13146911996672206</v>
+      </c>
+      <c r="G145">
+        <v>0.3824348560605163</v>
+      </c>
+      <c r="H145" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I145">
+        <v>7.8407800081733481E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" t="s">
+        <v>30</v>
+      </c>
+      <c r="B146">
+        <v>-0.10600250593424329</v>
+      </c>
+      <c r="C146">
+        <v>-6.9484401917285818E-2</v>
+      </c>
+      <c r="D146">
+        <v>-5.2819460638826116E-2</v>
+      </c>
+      <c r="E146">
+        <v>-7.8634630549554149E-2</v>
+      </c>
+      <c r="F146">
+        <v>4.1678025402308923E-2</v>
+      </c>
+      <c r="G146">
+        <v>0.15666634772044319</v>
+      </c>
+      <c r="H146">
+        <v>-0.13824317249091994</v>
+      </c>
+      <c r="I146" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Notes/Results8-lines .xlsx
+++ b/Notes/Results8-lines .xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kshitijbhatta/Desktop/Powergrid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E748175F-A174-D94F-8242-5E4822F7B33A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF366C4C-6930-5A43-A210-E070ACAE1988}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{F15564B4-478A-5749-9F90-458B4D70CD3F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14360" windowHeight="18000" xr2:uid="{F15564B4-478A-5749-9F90-458B4D70CD3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,8 +32,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="41">
   <si>
     <t>BEFORE FALIURE</t>
   </si>
@@ -92,9 +114,6 @@
     <t>Steady State of thetaj-thetai</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Line 2-1</t>
   </si>
   <si>
@@ -151,6 +170,15 @@
   <si>
     <t>After faliure peak of thetaj-thetai</t>
   </si>
+  <si>
+    <t>Difference in Steady state after and before faliure</t>
+  </si>
+  <si>
+    <t>Peak times in seconds</t>
+  </si>
+  <si>
+    <t>Faliure happens at 10s</t>
+  </si>
 </sst>
 </file>
 
@@ -190,7 +218,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,12 +228,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -235,7 +257,7 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -263,8 +285,8 @@
       <xdr:rowOff>387718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>941340</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
@@ -312,8 +334,8 @@
       <xdr:rowOff>196814</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>852440</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>251709</xdr:rowOff>
     </xdr:to>
@@ -361,8 +383,8 @@
       <xdr:rowOff>38238</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>12059</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>131249</xdr:rowOff>
     </xdr:to>
@@ -410,8 +432,8 @@
       <xdr:rowOff>63638</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>2223</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>977173</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
@@ -459,8 +481,8 @@
       <xdr:rowOff>85062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>507359</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
@@ -508,8 +530,8 @@
       <xdr:rowOff>146640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>342259</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>53715</xdr:rowOff>
     </xdr:to>
@@ -557,8 +579,8 @@
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>393059</xdr:colOff>
       <xdr:row>83</xdr:row>
       <xdr:rowOff>11069</xdr:rowOff>
     </xdr:to>
@@ -606,8 +628,8 @@
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>694578</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>630437</xdr:colOff>
       <xdr:row>97</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
@@ -655,8 +677,8 @@
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>401766</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>170858</xdr:colOff>
       <xdr:row>113</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -998,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B205C97E-91D2-964B-9E2A-7A9AF5F69B57}">
   <dimension ref="A2:S146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="99" workbookViewId="0">
-      <selection activeCell="K141" sqref="K141"/>
+    <sheetView tabSelected="1" topLeftCell="F124" zoomScale="99" workbookViewId="0">
+      <selection activeCell="N154" sqref="N154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1013,8 +1035,14 @@
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="13.5" customWidth="1"/>
     <col min="10" max="11" width="13.33203125" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" customWidth="1"/>
+    <col min="12" max="12" width="13.5" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" customWidth="1"/>
+    <col min="14" max="14" width="12.83203125" customWidth="1"/>
+    <col min="15" max="15" width="13.83203125" customWidth="1"/>
+    <col min="16" max="16" width="14.5" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" customWidth="1"/>
+    <col min="18" max="18" width="13" customWidth="1"/>
+    <col min="19" max="19" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:19" ht="31">
@@ -1036,7 +1064,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -1045,10 +1073,10 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
         <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>26</v>
       </c>
       <c r="K3" t="s">
         <v>4</v>
@@ -1320,13 +1348,13 @@
         <v>11</v>
       </c>
       <c r="G14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" t="s">
         <v>25</v>
       </c>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
       <c r="I14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K14" t="s">
         <v>17</v>
@@ -1366,14 +1394,14 @@
       <c r="I15">
         <v>2.2204460492503131E-16</v>
       </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
+      <c r="K15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1612,14 +1640,14 @@
         <v>1.6653345369377348E-16</v>
       </c>
       <c r="J27" s="4"/>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
+      <c r="K27" t="s">
+        <v>12</v>
+      </c>
+      <c r="L27" t="s">
+        <v>12</v>
+      </c>
+      <c r="M27" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1866,14 +1894,14 @@
       <c r="I39">
         <v>0</v>
       </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
+      <c r="K39" t="s">
+        <v>12</v>
+      </c>
+      <c r="L39" t="s">
+        <v>12</v>
+      </c>
+      <c r="M39" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2080,7 +2108,7 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D49" s="7"/>
     </row>
@@ -2112,14 +2140,14 @@
       <c r="I50">
         <v>1.1102230246251565E-16</v>
       </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
+      <c r="K50" t="s">
+        <v>12</v>
+      </c>
+      <c r="L50" t="s">
+        <v>12</v>
+      </c>
+      <c r="M50" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2360,14 +2388,14 @@
       <c r="I63">
         <v>-2.7755575615628914E-16</v>
       </c>
-      <c r="K63">
-        <v>0</v>
-      </c>
-      <c r="L63">
-        <v>0</v>
-      </c>
-      <c r="M63">
-        <v>0</v>
+      <c r="K63" t="s">
+        <v>12</v>
+      </c>
+      <c r="L63" t="s">
+        <v>12</v>
+      </c>
+      <c r="M63" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -2608,14 +2636,14 @@
       <c r="I76">
         <v>-3.3306690738754696E-16</v>
       </c>
-      <c r="K76">
-        <v>0</v>
-      </c>
-      <c r="L76">
-        <v>0</v>
-      </c>
-      <c r="M76">
-        <v>0</v>
+      <c r="K76" t="s">
+        <v>12</v>
+      </c>
+      <c r="L76" t="s">
+        <v>12</v>
+      </c>
+      <c r="M76" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -2828,7 +2856,7 @@
     </row>
     <row r="89" spans="1:13">
       <c r="A89" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -2859,14 +2887,14 @@
       <c r="I90">
         <v>-2.2204460492503131E-16</v>
       </c>
-      <c r="K90">
-        <v>0</v>
-      </c>
-      <c r="L90">
-        <v>0</v>
-      </c>
-      <c r="M90">
-        <v>0</v>
+      <c r="K90" t="s">
+        <v>12</v>
+      </c>
+      <c r="L90" t="s">
+        <v>12</v>
+      </c>
+      <c r="M90" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -3082,7 +3110,7 @@
     </row>
     <row r="104" spans="1:13">
       <c r="A104" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -3113,14 +3141,14 @@
       <c r="I105" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K105">
-        <v>0</v>
-      </c>
-      <c r="L105">
-        <v>0</v>
-      </c>
-      <c r="M105">
-        <v>0</v>
+      <c r="K105" t="s">
+        <v>12</v>
+      </c>
+      <c r="L105" t="s">
+        <v>12</v>
+      </c>
+      <c r="M105" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -3313,9 +3341,9 @@
         <v>0.11568818658630427</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:19">
       <c r="E113" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F113" t="s">
         <v>18</v>
@@ -3323,11 +3351,11 @@
       <c r="I113" s="7"/>
       <c r="J113" s="5"/>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:19">
       <c r="I114" s="7"/>
       <c r="J114" s="6"/>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:19">
       <c r="B115" s="2">
         <v>-0.104761905</v>
       </c>
@@ -3354,27 +3382,30 @@
       </c>
       <c r="J115" s="6"/>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:19">
       <c r="I116" s="7"/>
       <c r="J116" s="6"/>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:19">
       <c r="I117" s="7"/>
       <c r="J117" s="6"/>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:19">
       <c r="I118" s="7"/>
       <c r="J118" s="6"/>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:19">
       <c r="E121" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F121" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="122" spans="1:13">
+      <c r="N121" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19">
       <c r="B122" t="s">
         <v>7</v>
       </c>
@@ -3391,18 +3422,42 @@
         <v>11</v>
       </c>
       <c r="G122" t="s">
+        <v>24</v>
+      </c>
+      <c r="H122" t="s">
         <v>25</v>
       </c>
-      <c r="H122" t="s">
-        <v>26</v>
-      </c>
       <c r="I122" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13">
+        <v>25</v>
+      </c>
+      <c r="L122" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M122" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N122" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O122" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P122" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q122" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R122" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S122" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19">
       <c r="A123" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>12</v>
@@ -3428,10 +3483,38 @@
       <c r="I123">
         <v>-2.7755575615628914E-17</v>
       </c>
-    </row>
-    <row r="124" spans="1:13">
+      <c r="K123" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L123" t="e" cm="1">
+        <f t="array" ref="L123:S123">B123:I123-B115:I115</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M123">
+        <v>-7.6190475857142712E-2</v>
+      </c>
+      <c r="N123">
+        <v>-1.9047619428571423E-2</v>
+      </c>
+      <c r="O123">
+        <v>-9.5238094285714364E-3</v>
+      </c>
+      <c r="P123">
+        <v>0.10476190485714262</v>
+      </c>
+      <c r="Q123">
+        <v>-2.1428571428571602E-2</v>
+      </c>
+      <c r="R123">
+        <v>2.8571428857142922E-2</v>
+      </c>
+      <c r="S123">
+        <v>9.5238099999999729E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19">
       <c r="A124" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B124">
         <v>-0.14285714285714285</v>
@@ -3457,10 +3540,38 @@
       <c r="I124">
         <v>-3.4694469519536142E-17</v>
       </c>
-    </row>
-    <row r="125" spans="1:13">
+      <c r="K124" t="s">
+        <v>20</v>
+      </c>
+      <c r="L124" cm="1">
+        <f t="array" ref="L124:S124">B124:I124-B115:I115</f>
+        <v>-3.8095237857142847E-2</v>
+      </c>
+      <c r="M124" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N124">
+        <v>-1.9047619428571451E-2</v>
+      </c>
+      <c r="O124">
+        <v>-9.5238094285714642E-3</v>
+      </c>
+      <c r="P124">
+        <v>-3.8095238000000017E-2</v>
+      </c>
+      <c r="Q124">
+        <v>-2.1428571428571463E-2</v>
+      </c>
+      <c r="R124">
+        <v>2.8571428857142908E-2</v>
+      </c>
+      <c r="S124">
+        <v>9.5238099999999659E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19">
       <c r="A125" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B125">
         <v>-0.11224489795918369</v>
@@ -3486,13 +3597,44 @@
       <c r="I125">
         <v>2.0408163265306187E-2</v>
       </c>
-      <c r="M125" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13">
+      <c r="K125" t="s">
+        <v>21</v>
+      </c>
+      <c r="L125">
+        <f>B125-B115</f>
+        <v>-7.4829929591836847E-3</v>
+      </c>
+      <c r="M125">
+        <f t="shared" ref="M125:S125" si="0">C125-C115</f>
+        <v>-1.4965986061224568E-2</v>
+      </c>
+      <c r="N125" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O125">
+        <f t="shared" si="0"/>
+        <v>-2.9931972693877554E-2</v>
+      </c>
+      <c r="P125">
+        <f t="shared" si="0"/>
+        <v>-7.4829931020408483E-3</v>
+      </c>
+      <c r="Q125">
+        <f t="shared" si="0"/>
+        <v>-7.2448979591836715E-2</v>
+      </c>
+      <c r="R125">
+        <f t="shared" si="0"/>
+        <v>-2.2448979306122524E-2</v>
+      </c>
+      <c r="S125">
+        <f t="shared" si="0"/>
+        <v>2.9931973265306187E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19">
       <c r="A126" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B126">
         <v>-0.11038961038961037</v>
@@ -3518,10 +3660,44 @@
       <c r="I126">
         <v>-7.1428571428571452E-2</v>
       </c>
-    </row>
-    <row r="127" spans="1:13">
+      <c r="K126" t="s">
+        <v>35</v>
+      </c>
+      <c r="L126">
+        <f>B126-B115</f>
+        <v>-5.6277053896103685E-3</v>
+      </c>
+      <c r="M126">
+        <f t="shared" ref="M126:S126" si="1">C126-C115</f>
+        <v>-1.1255410922077921E-2</v>
+      </c>
+      <c r="N126">
+        <f t="shared" si="1"/>
+        <v>-4.5021645402597447E-2</v>
+      </c>
+      <c r="O126" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P126">
+        <f t="shared" si="1"/>
+        <v>-5.627705532467539E-3</v>
+      </c>
+      <c r="Q126">
+        <f t="shared" si="1"/>
+        <v>-6.6883116883116878E-2</v>
+      </c>
+      <c r="R126">
+        <f t="shared" si="1"/>
+        <v>-1.6883116597402631E-2</v>
+      </c>
+      <c r="S126">
+        <f t="shared" si="1"/>
+        <v>-6.1904761428571452E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19">
       <c r="A127" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B127">
         <v>-0.14285714285714265</v>
@@ -3547,10 +3723,44 @@
       <c r="I127">
         <v>-1.2987012987012912E-2</v>
       </c>
-    </row>
-    <row r="128" spans="1:13">
+      <c r="K127" t="s">
+        <v>22</v>
+      </c>
+      <c r="L127">
+        <f>B127-B115</f>
+        <v>-3.8095237857142653E-2</v>
+      </c>
+      <c r="M127">
+        <f t="shared" ref="M127:S127" si="2">C127-C115</f>
+        <v>2.7705628038961067E-2</v>
+      </c>
+      <c r="N127">
+        <f t="shared" si="2"/>
+        <v>6.9264065454544138E-3</v>
+      </c>
+      <c r="O127">
+        <f t="shared" si="2"/>
+        <v>3.4632035584414994E-3</v>
+      </c>
+      <c r="P127" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q127">
+        <f t="shared" si="2"/>
+        <v>-6.0389610389610632E-2</v>
+      </c>
+      <c r="R127">
+        <f t="shared" si="2"/>
+        <v>-1.0389610103896024E-2</v>
+      </c>
+      <c r="S127">
+        <f t="shared" si="2"/>
+        <v>-3.4632029870129109E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19">
       <c r="A128" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B128">
         <v>-0.15476190476190488</v>
@@ -3576,10 +3786,44 @@
       <c r="I128">
         <v>-5.9523809523809479E-2</v>
       </c>
-    </row>
-    <row r="129" spans="1:9">
+      <c r="K128" t="s">
+        <v>23</v>
+      </c>
+      <c r="L128">
+        <f>B128-B115</f>
+        <v>-4.9999999761904876E-2</v>
+      </c>
+      <c r="M128">
+        <f t="shared" ref="M128:S128" si="3">C128-C115</f>
+        <v>-9.9999999666666714E-2</v>
+      </c>
+      <c r="N128">
+        <f t="shared" si="3"/>
+        <v>9.9999999619047542E-2</v>
+      </c>
+      <c r="O128">
+        <f t="shared" si="3"/>
+        <v>5.0000000095238056E-2</v>
+      </c>
+      <c r="P128">
+        <f t="shared" si="3"/>
+        <v>-4.9999999904761852E-2</v>
+      </c>
+      <c r="Q128" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="R128">
+        <f t="shared" si="3"/>
+        <v>-0.14999999971428588</v>
+      </c>
+      <c r="S128">
+        <f t="shared" si="3"/>
+        <v>-4.9999999523809478E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19">
       <c r="A129" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B129">
         <v>-5.9523809523809451E-2</v>
@@ -3605,10 +3849,44 @@
       <c r="I129">
         <v>3.5714285714285865E-2</v>
       </c>
-    </row>
-    <row r="130" spans="1:9">
+      <c r="K129" t="s">
+        <v>28</v>
+      </c>
+      <c r="L129">
+        <f>B129-B115</f>
+        <v>4.5238095476190551E-2</v>
+      </c>
+      <c r="M129">
+        <f t="shared" ref="M129:S129" si="4">C129-C115</f>
+        <v>9.0476190809523932E-2</v>
+      </c>
+      <c r="N129">
+        <f t="shared" si="4"/>
+        <v>-9.0476190857142841E-2</v>
+      </c>
+      <c r="O129">
+        <f t="shared" si="4"/>
+        <v>-4.5238095142856982E-2</v>
+      </c>
+      <c r="P129">
+        <f t="shared" si="4"/>
+        <v>4.5238095333333388E-2</v>
+      </c>
+      <c r="Q129">
+        <f t="shared" si="4"/>
+        <v>8.5714285714285743E-2</v>
+      </c>
+      <c r="R129" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="S129">
+        <f t="shared" si="4"/>
+        <v>4.5238095714285866E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19">
       <c r="A130" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B130">
         <v>-0.10389610389610385</v>
@@ -3634,27 +3912,69 @@
       <c r="I130" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="133" spans="1:9">
+      <c r="K130" t="s">
+        <v>29</v>
+      </c>
+      <c r="L130">
+        <f>B130-B115</f>
+        <v>8.6580110389615494E-4</v>
+      </c>
+      <c r="M130">
+        <f t="shared" ref="M130:S130" si="5">C130-C115</f>
+        <v>1.7316020649351116E-3</v>
+      </c>
+      <c r="N130">
+        <f t="shared" si="5"/>
+        <v>6.9264065454544485E-3</v>
+      </c>
+      <c r="O130">
+        <f t="shared" si="5"/>
+        <v>-9.5238094285715058E-3</v>
+      </c>
+      <c r="P130">
+        <f t="shared" si="5"/>
+        <v>8.6580096103897747E-4</v>
+      </c>
+      <c r="Q130">
+        <f t="shared" si="5"/>
+        <v>-4.7402597402597613E-2</v>
+      </c>
+      <c r="R130">
+        <f t="shared" si="5"/>
+        <v>2.5974028831169116E-3</v>
+      </c>
+      <c r="S130" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19">
       <c r="B133" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19">
       <c r="B134" s="9"/>
       <c r="C134" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19">
+      <c r="B135" s="10"/>
+    </row>
+    <row r="136" spans="1:19">
+      <c r="N136" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19">
+      <c r="E137" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="135" spans="1:9">
-      <c r="B135" s="10"/>
-    </row>
-    <row r="137" spans="1:9">
-      <c r="E137" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+      <c r="N137" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19">
       <c r="B138" t="s">
         <v>7</v>
       </c>
@@ -3671,18 +3991,42 @@
         <v>11</v>
       </c>
       <c r="G138" t="s">
+        <v>24</v>
+      </c>
+      <c r="H138" t="s">
         <v>25</v>
       </c>
-      <c r="H138" t="s">
-        <v>26</v>
-      </c>
       <c r="I138" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="L138" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M138" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N138" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O138" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q138" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R138" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S138" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19">
       <c r="A139" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B139" s="7" t="s">
         <v>12</v>
@@ -3708,10 +4052,37 @@
       <c r="I139">
         <v>1.8532289933191864E-2</v>
       </c>
-    </row>
-    <row r="140" spans="1:9">
+      <c r="K139" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L139" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M139" s="7">
+        <v>10.342000000000001</v>
+      </c>
+      <c r="N139" s="7">
+        <v>10.131399999999999</v>
+      </c>
+      <c r="O139" s="7">
+        <v>10.127800000000001</v>
+      </c>
+      <c r="P139" s="7">
+        <v>10.2448</v>
+      </c>
+      <c r="Q139" s="7">
+        <v>10.316800000000001</v>
+      </c>
+      <c r="R139" s="7">
+        <v>10.599399999999999</v>
+      </c>
+      <c r="S139" s="7">
+        <v>10.315</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19">
       <c r="A140" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B140">
         <v>-0.16945075880007418</v>
@@ -3737,10 +4108,37 @@
       <c r="I140">
         <v>-2.858969639494504E-2</v>
       </c>
-    </row>
-    <row r="141" spans="1:9">
+      <c r="K140" t="s">
+        <v>20</v>
+      </c>
+      <c r="L140" s="7">
+        <v>10.838799999999999</v>
+      </c>
+      <c r="M140" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N140" s="7">
+        <v>10.63</v>
+      </c>
+      <c r="O140" s="7">
+        <v>11.083600000000001</v>
+      </c>
+      <c r="P140" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q140" s="7">
+        <v>10.788399999999999</v>
+      </c>
+      <c r="R140" s="7">
+        <v>10.009</v>
+      </c>
+      <c r="S140" s="7">
+        <v>10.480600000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19">
       <c r="A141" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B141">
         <v>-0.13015973262726416</v>
@@ -3766,10 +4164,37 @@
       <c r="I141">
         <v>4.2183796660903154E-2</v>
       </c>
-    </row>
-    <row r="142" spans="1:9">
+      <c r="K141" t="s">
+        <v>21</v>
+      </c>
+      <c r="L141" s="7">
+        <v>11.083600000000001</v>
+      </c>
+      <c r="M141" s="7">
+        <v>10.6282</v>
+      </c>
+      <c r="N141" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O141" s="7">
+        <v>10.838799999999999</v>
+      </c>
+      <c r="P141" s="7">
+        <v>10.480600000000001</v>
+      </c>
+      <c r="Q141" s="7">
+        <v>10.0162</v>
+      </c>
+      <c r="R141" s="7">
+        <v>10.788399999999999</v>
+      </c>
+      <c r="S141" s="7">
+        <v>10.192600000000001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19">
       <c r="A142" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B142">
         <v>-0.13372035581466726</v>
@@ -3795,10 +4220,37 @@
       <c r="I142">
         <v>-0.10508372764449239</v>
       </c>
-    </row>
-    <row r="143" spans="1:9">
+      <c r="K142" t="s">
+        <v>35</v>
+      </c>
+      <c r="L142" s="7">
+        <v>10.125999999999999</v>
+      </c>
+      <c r="M142" s="7">
+        <v>10.1296</v>
+      </c>
+      <c r="N142" s="7">
+        <v>10.342000000000001</v>
+      </c>
+      <c r="O142" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P142" s="7">
+        <v>10.678599999999999</v>
+      </c>
+      <c r="Q142" s="7">
+        <v>10.5976</v>
+      </c>
+      <c r="R142" s="7">
+        <v>10.316800000000001</v>
+      </c>
+      <c r="S142" s="7">
+        <v>10.2448</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19">
       <c r="A143" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B143">
         <v>-0.17152747980172867</v>
@@ -3824,10 +4276,37 @@
       <c r="I143">
         <v>-2.3025963489746431E-2</v>
       </c>
-    </row>
-    <row r="144" spans="1:9">
+      <c r="K143" t="s">
+        <v>22</v>
+      </c>
+      <c r="L143" s="7">
+        <v>10.260999999999999</v>
+      </c>
+      <c r="M143" s="7">
+        <v>10.0054</v>
+      </c>
+      <c r="N143" s="7">
+        <v>10.5184</v>
+      </c>
+      <c r="O143" s="7">
+        <v>11.1538</v>
+      </c>
+      <c r="P143" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q143" s="7">
+        <v>10.324</v>
+      </c>
+      <c r="R143" s="7">
+        <v>10.275399999999999</v>
+      </c>
+      <c r="S143" s="7">
+        <v>10.3294</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19">
       <c r="A144" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B144">
         <v>-0.24693383574085351</v>
@@ -3853,10 +4332,37 @@
       <c r="I144">
         <v>-0.11294764381855063</v>
       </c>
-    </row>
-    <row r="145" spans="1:9">
+      <c r="K144" t="s">
+        <v>23</v>
+      </c>
+      <c r="L144" s="7">
+        <v>10.3294</v>
+      </c>
+      <c r="M144" s="7">
+        <v>10.3888</v>
+      </c>
+      <c r="N144" s="7">
+        <v>10.305999999999999</v>
+      </c>
+      <c r="O144" s="7">
+        <v>10.6228</v>
+      </c>
+      <c r="P144" s="7">
+        <v>10.153</v>
+      </c>
+      <c r="Q144" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="R144" s="7">
+        <v>10.3348</v>
+      </c>
+      <c r="S144" s="7">
+        <v>10.286200000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19">
       <c r="A145" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B145">
         <v>-0.10746865308717775</v>
@@ -3882,10 +4388,37 @@
       <c r="I145">
         <v>7.8407800081733481E-2</v>
       </c>
-    </row>
-    <row r="146" spans="1:9">
+      <c r="K145" t="s">
+        <v>28</v>
+      </c>
+      <c r="L145" s="7">
+        <v>10.6228</v>
+      </c>
+      <c r="M145" s="7">
+        <v>10.305999999999999</v>
+      </c>
+      <c r="N145" s="7">
+        <v>10.390599999999999</v>
+      </c>
+      <c r="O145" s="7">
+        <v>10.3294</v>
+      </c>
+      <c r="P145" s="7">
+        <v>10.2844</v>
+      </c>
+      <c r="Q145" s="7">
+        <v>10.3348</v>
+      </c>
+      <c r="R145" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="S145" s="7">
+        <v>10.153</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19">
       <c r="A146" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B146">
         <v>-0.10600250593424329</v>
@@ -3909,6 +4442,33 @@
         <v>-0.13824317249091994</v>
       </c>
       <c r="I146" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K146" t="s">
+        <v>29</v>
+      </c>
+      <c r="L146" s="7">
+        <v>11.17</v>
+      </c>
+      <c r="M146" s="7">
+        <v>10.509399999999999</v>
+      </c>
+      <c r="N146" s="7">
+        <v>10.0108</v>
+      </c>
+      <c r="O146" s="7">
+        <v>10.2592</v>
+      </c>
+      <c r="P146" s="7">
+        <v>10.340199999999999</v>
+      </c>
+      <c r="Q146" s="7">
+        <v>10.2736</v>
+      </c>
+      <c r="R146" s="7">
+        <v>10.316800000000001</v>
+      </c>
+      <c r="S146" s="7" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Notes/Results8-lines .xlsx
+++ b/Notes/Results8-lines .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kshitijbhatta/Desktop/Powergrid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF366C4C-6930-5A43-A210-E070ACAE1988}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF56E36-4566-4A44-9DFB-073373443C28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14360" windowHeight="18000" xr2:uid="{F15564B4-478A-5749-9F90-458B4D70CD3F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14360" windowHeight="16240" xr2:uid="{F15564B4-478A-5749-9F90-458B4D70CD3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="44">
   <si>
     <t>BEFORE FALIURE</t>
   </si>
@@ -179,6 +179,15 @@
   <si>
     <t>Faliure happens at 10s</t>
   </si>
+  <si>
+    <t>Zeta</t>
+  </si>
+  <si>
+    <t>Omega</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
 </sst>
 </file>
 
@@ -279,14 +288,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>368300</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>387718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>941340</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>81845</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
@@ -328,14 +337,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>196814</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>852440</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>813955</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>251709</xdr:rowOff>
     </xdr:to>
@@ -377,14 +386,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>38238</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>12059</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>191655</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>131249</xdr:rowOff>
     </xdr:to>
@@ -426,14 +435,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>368300</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>63638</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>977173</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>117678</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
@@ -475,14 +484,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>393700</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>85062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>507359</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>686955</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
@@ -524,14 +533,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>146640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>342259</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>521855</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>53715</xdr:rowOff>
     </xdr:to>
@@ -573,14 +582,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>393059</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>572655</xdr:colOff>
       <xdr:row>83</xdr:row>
       <xdr:rowOff>11069</xdr:rowOff>
     </xdr:to>
@@ -622,14 +631,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>84</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>630437</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>810033</xdr:colOff>
       <xdr:row>97</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
@@ -671,14 +680,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>99</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>170858</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>517221</xdr:colOff>
       <xdr:row>113</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1018,10 +1027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B205C97E-91D2-964B-9E2A-7A9AF5F69B57}">
-  <dimension ref="A2:S146"/>
+  <dimension ref="A2:V146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F124" zoomScale="99" workbookViewId="0">
-      <selection activeCell="N154" sqref="N154"/>
+    <sheetView tabSelected="1" topLeftCell="H31" zoomScale="99" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1045,12 +1054,12 @@
     <col min="19" max="19" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" ht="31">
+    <row r="2" spans="1:22" ht="31">
       <c r="H2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1087,8 +1096,17 @@
       <c r="M3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="N3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1116,22 +1134,31 @@
       <c r="I4">
         <v>-3.3306690738754696E-16</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="2">
         <v>0</v>
       </c>
-      <c r="L4" s="2">
+      <c r="P4">
         <v>0</v>
       </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1168,8 +1195,17 @@
       <c r="M5" s="2">
         <v>0.225977172</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="N5" s="2">
+        <v>3.2351902000000002E-2</v>
+      </c>
+      <c r="O5" s="2">
+        <v>13.909537800000001</v>
+      </c>
+      <c r="P5">
+        <v>-6.0150095500755079</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1206,8 +1242,17 @@
       <c r="M6" s="2">
         <v>0.203892554</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="N6" s="2">
+        <v>2.9193008999999999E-2</v>
+      </c>
+      <c r="O6" s="2">
+        <v>15.414649199999999</v>
+      </c>
+      <c r="P6">
+        <v>27.600925369657428</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1244,8 +1289,17 @@
       <c r="M7" s="2">
         <v>0.13961637700000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="N7" s="2">
+        <v>1.9994575000000001E-2</v>
+      </c>
+      <c r="O7" s="2">
+        <v>22.5061049</v>
+      </c>
+      <c r="P7">
+        <v>-3.7174803446018667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1282,8 +1336,17 @@
       <c r="M8" s="2">
         <v>0.13278052900000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="N8" s="2">
+        <v>1.9015971E-2</v>
+      </c>
+      <c r="O8" s="2">
+        <v>23.6643191</v>
+      </c>
+      <c r="P8">
+        <v>8.1649658092771986</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1320,18 +1383,27 @@
       <c r="M9" s="2">
         <v>0.115317035</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" ht="31">
+      <c r="N9" s="2">
+        <v>1.6515696E-2</v>
+      </c>
+      <c r="O9" s="2">
+        <v>27.2468088</v>
+      </c>
+      <c r="P9">
+        <v>63.808481035611031</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="31">
       <c r="I12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:22">
       <c r="B14" t="s">
         <v>7</v>
       </c>
@@ -1365,8 +1437,17 @@
       <c r="M14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="N14" t="s">
+        <v>41</v>
+      </c>
+      <c r="O14" t="s">
+        <v>42</v>
+      </c>
+      <c r="P14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1403,8 +1484,17 @@
       <c r="M15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="N15" t="s">
+        <v>12</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1441,8 +1531,17 @@
       <c r="M16">
         <v>0.31287970909220897</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>4.4771776710143416E-2</v>
+      </c>
+      <c r="O16">
+        <v>10.050974811952209</v>
+      </c>
+      <c r="P16">
+        <v>21.116136158750894</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17">
         <v>3</v>
       </c>
@@ -1479,8 +1578,17 @@
       <c r="M17">
         <v>0.20477932852972727</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>2.931986752956536E-2</v>
+      </c>
+      <c r="O17">
+        <v>15.347954745915281</v>
+      </c>
+      <c r="P17">
+        <v>27.243129792418785</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>4</v>
       </c>
@@ -1517,8 +1625,17 @@
       <c r="M18">
         <v>0.15333099316873322</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>2.1957751641342001E-2</v>
+      </c>
+      <c r="O18">
+        <v>20.493901531919192</v>
+      </c>
+      <c r="P18">
+        <v>12.990381056766559</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>5</v>
       </c>
@@ -1555,8 +1672,17 @@
       <c r="M19">
         <v>0.13797441599740382</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>1.9759520723256891E-2</v>
+      </c>
+      <c r="O19">
+        <v>22.7738317291447</v>
+      </c>
+      <c r="P19">
+        <v>1.2212522516608371</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>6</v>
       </c>
@@ -1593,25 +1719,34 @@
       <c r="M20">
         <v>0.12007192881427944</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>1.7196493665211365E-2</v>
+      </c>
+      <c r="O20">
+        <v>26.168125244645271</v>
+      </c>
+      <c r="P20">
+        <v>-59.930620018287229</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="B21" s="7"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:16">
       <c r="B22" s="7"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:16">
       <c r="B23" s="7"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:16">
       <c r="B24" s="7"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:16">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1649,8 +1784,17 @@
       <c r="M27" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" t="s">
+        <v>12</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1688,8 +1832,17 @@
       <c r="M28">
         <v>0.26570527116581943</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28">
+        <v>3.8031941462783242E-2</v>
+      </c>
+      <c r="O28">
+        <v>11.832159566199234</v>
+      </c>
+      <c r="P28">
+        <v>-7.2168783648703245</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29">
         <v>3</v>
       </c>
@@ -1727,8 +1880,17 @@
       <c r="M29">
         <v>0.21094132036382413</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29">
+        <v>3.0201335393852891E-2</v>
+      </c>
+      <c r="O29">
+        <v>14.900003398246819</v>
+      </c>
+      <c r="P29">
+        <v>-21.60801569153989</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30">
         <v>4</v>
       </c>
@@ -1766,8 +1928,17 @@
       <c r="M30">
         <v>0.15333099316873319</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30">
+        <v>2.1957751641341998E-2</v>
+      </c>
+      <c r="O30">
+        <v>20.493901531919196</v>
+      </c>
+      <c r="P30">
+        <v>30.310889132455355</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31">
         <v>5</v>
       </c>
@@ -1805,8 +1976,17 @@
       <c r="M31">
         <v>0.13278052925485434</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31">
+        <v>1.9015970731391621E-2</v>
+      </c>
+      <c r="O31">
+        <v>23.664319132398468</v>
+      </c>
+      <c r="P31">
+        <v>-8.164965809277243</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32">
         <v>6</v>
       </c>
@@ -1844,29 +2024,38 @@
       <c r="M32">
         <v>0.12639513261697938</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32">
+        <v>1.8101802639388029E-2</v>
+      </c>
+      <c r="O32">
+        <v>24.859402622191734</v>
+      </c>
+      <c r="P32">
+        <v>58.699179362868144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="C33" s="7"/>
       <c r="J33" s="4"/>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:16">
       <c r="C34" s="7"/>
       <c r="J34" s="4"/>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:16">
       <c r="C35" s="7"/>
       <c r="J35" s="4"/>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:16">
       <c r="C36" s="7"/>
       <c r="J36" s="4"/>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:16">
       <c r="A38" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:16">
       <c r="A39">
         <v>1</v>
       </c>
@@ -1903,8 +2092,17 @@
       <c r="M39" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" t="s">
+        <v>12</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40">
         <v>2</v>
       </c>
@@ -1941,8 +2139,17 @@
       <c r="M40">
         <v>0.26570527116581932</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40">
+        <v>3.8031941462783228E-2</v>
+      </c>
+      <c r="O40">
+        <v>11.832159566199238</v>
+      </c>
+      <c r="P40">
+        <v>1.4433756729740628</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41">
         <v>3</v>
       </c>
@@ -1979,8 +2186,17 @@
       <c r="M41">
         <v>0.21094132036382413</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41">
+        <v>3.0201335393852891E-2</v>
+      </c>
+      <c r="O41">
+        <v>14.900003398246819</v>
+      </c>
+      <c r="P41">
+        <v>-15.075200867158006</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42">
         <v>4</v>
       </c>
@@ -2017,8 +2233,17 @@
       <c r="M42">
         <v>0.15333099316873319</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42">
+        <v>2.1957751641341998E-2</v>
+      </c>
+      <c r="O42">
+        <v>20.493901531919196</v>
+      </c>
+      <c r="P42">
+        <v>38.971143170299733</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43">
         <v>5</v>
       </c>
@@ -2055,8 +2280,17 @@
       <c r="M43">
         <v>0.13278052925485434</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43">
+        <v>1.9015970731391624E-2</v>
+      </c>
+      <c r="O43">
+        <v>23.664319132398465</v>
+      </c>
+      <c r="P43">
+        <v>-8.1649658092774064</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44">
         <v>6</v>
       </c>
@@ -2093,26 +2327,35 @@
       <c r="M44">
         <v>0.12639513261697938</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="N44">
+        <v>1.8101802639388029E-2</v>
+      </c>
+      <c r="O44">
+        <v>24.859402622191734</v>
+      </c>
+      <c r="P44">
+        <v>55.99319886213712</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
       <c r="D45" s="7"/>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:16">
       <c r="D46" s="7"/>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:16">
       <c r="D47" s="7"/>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:16">
       <c r="D48" s="7"/>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:16">
       <c r="A49" t="s">
         <v>34</v>
       </c>
       <c r="D49" s="7"/>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:16">
       <c r="A50">
         <v>1</v>
       </c>
@@ -2149,8 +2392,17 @@
       <c r="M50" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="N50" t="s">
+        <v>12</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
       <c r="A51">
         <v>2</v>
       </c>
@@ -2187,8 +2439,17 @@
       <c r="M51">
         <v>0.31287970909220902</v>
       </c>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="N51">
+        <v>4.4771776710143422E-2</v>
+      </c>
+      <c r="O51">
+        <v>10.050974811952207</v>
+      </c>
+      <c r="P51">
+        <v>-9.0319956618477555</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
       <c r="A52">
         <v>3</v>
       </c>
@@ -2225,8 +2486,17 @@
       <c r="M52">
         <v>0.20477932852972722</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52">
+        <v>2.9319867529565349E-2</v>
+      </c>
+      <c r="O52">
+        <v>15.347954745915287</v>
+      </c>
+      <c r="P52">
+        <v>29.356235817302444</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
       <c r="A53">
         <v>4</v>
       </c>
@@ -2263,8 +2533,17 @@
       <c r="M53">
         <v>0.15333099316873317</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53">
+        <v>2.1957751641341994E-2</v>
+      </c>
+      <c r="O53">
+        <v>20.493901531919199</v>
+      </c>
+      <c r="P53">
+        <v>12.990381056766557</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
       <c r="A54">
         <v>5</v>
       </c>
@@ -2301,8 +2580,17 @@
       <c r="M54">
         <v>0.13797441599740382</v>
       </c>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="N54">
+        <v>1.9759520723256891E-2</v>
+      </c>
+      <c r="O54">
+        <v>22.7738317291447</v>
+      </c>
+      <c r="P54">
+        <v>5.5893788602955725</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
       <c r="A55">
         <v>6</v>
       </c>
@@ -2339,28 +2627,37 @@
       <c r="M55">
         <v>0.12007192881427946</v>
       </c>
-    </row>
-    <row r="56" spans="1:13">
+      <c r="N55">
+        <v>1.7196493665211369E-2</v>
+      </c>
+      <c r="O55">
+        <v>26.168125244645267</v>
+      </c>
+      <c r="P55">
+        <v>61.69800091542173</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
       <c r="D56" s="7"/>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:16">
       <c r="D57" s="7"/>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:16">
       <c r="D58" s="7"/>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:16">
       <c r="D59" s="7"/>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:16">
       <c r="D60" s="7"/>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:16">
       <c r="A62" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:16">
       <c r="A63">
         <v>1</v>
       </c>
@@ -2397,8 +2694,17 @@
       <c r="M63" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="64" spans="1:13">
+      <c r="N63" t="s">
+        <v>12</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
       <c r="A64">
         <v>2</v>
       </c>
@@ -2435,8 +2741,17 @@
       <c r="M64">
         <v>0.28299448810676769</v>
       </c>
-    </row>
-    <row r="65" spans="1:13">
+      <c r="N64">
+        <v>4.0502711819523217E-2</v>
+      </c>
+      <c r="O64">
+        <v>11.110367177515505</v>
+      </c>
+      <c r="P64">
+        <v>17.048701693562624</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
       <c r="A65">
         <v>3</v>
       </c>
@@ -2473,8 +2788,17 @@
       <c r="M65">
         <v>0.22055777583652275</v>
       </c>
-    </row>
-    <row r="66" spans="1:13">
+      <c r="N65">
+        <v>3.1576819899768779E-2</v>
+      </c>
+      <c r="O65">
+        <v>14.250960084910107</v>
+      </c>
+      <c r="P65">
+        <v>-7.9080204708059219</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
       <c r="A66">
         <v>4</v>
       </c>
@@ -2511,8 +2835,17 @@
       <c r="M66">
         <v>0.16683947708127217</v>
       </c>
-    </row>
-    <row r="67" spans="1:13">
+      <c r="N66">
+        <v>2.3891173412490786E-2</v>
+      </c>
+      <c r="O66">
+        <v>18.835408049264377</v>
+      </c>
+      <c r="P66">
+        <v>-20.557304023957801</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
       <c r="A67">
         <v>5</v>
       </c>
@@ -2549,8 +2882,17 @@
       <c r="M67">
         <v>0.13508500704919005</v>
       </c>
-    </row>
-    <row r="68" spans="1:13">
+      <c r="N67">
+        <v>1.9345880707383283E-2</v>
+      </c>
+      <c r="O67">
+        <v>23.260765782984446</v>
+      </c>
+      <c r="P67">
+        <v>11.509865829022052</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
       <c r="A68">
         <v>6</v>
       </c>
@@ -2587,28 +2929,37 @@
       <c r="M68">
         <v>0.11568818658630424</v>
       </c>
-    </row>
-    <row r="69" spans="1:13">
+      <c r="N68">
+        <v>1.6568837317538762E-2</v>
+      </c>
+      <c r="O68">
+        <v>27.159419298761382</v>
+      </c>
+      <c r="P68">
+        <v>-63.574564274257554</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
       <c r="E69" s="7"/>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:16">
       <c r="E70" s="7"/>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:16">
       <c r="E71" s="7"/>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:16">
       <c r="E72" s="7"/>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:16">
       <c r="E73" s="7"/>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:16">
       <c r="A75" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:16">
       <c r="A76">
         <v>1</v>
       </c>
@@ -2645,8 +2996,17 @@
       <c r="M76" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="77" spans="1:13">
+      <c r="N76" t="s">
+        <v>12</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
       <c r="A77">
         <v>2</v>
       </c>
@@ -2683,8 +3043,17 @@
       <c r="M77">
         <v>0.33454042397379119</v>
       </c>
-    </row>
-    <row r="78" spans="1:13">
+      <c r="N77">
+        <v>4.7864462630995315E-2</v>
+      </c>
+      <c r="O77">
+        <v>9.4015471033115929</v>
+      </c>
+      <c r="P77">
+        <v>-34.59073612684503</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
       <c r="A78">
         <v>3</v>
       </c>
@@ -2721,8 +3090,17 @@
       <c r="M78">
         <v>0.21881321384422306</v>
       </c>
-    </row>
-    <row r="79" spans="1:13">
+      <c r="N78">
+        <v>3.1327300510817772E-2</v>
+      </c>
+      <c r="O78">
+        <v>14.364467817602364</v>
+      </c>
+      <c r="P78">
+        <v>-13.821743175045741</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
       <c r="A79">
         <v>4</v>
       </c>
@@ -2759,8 +3137,17 @@
       <c r="M79">
         <v>0.15333099316873319</v>
       </c>
-    </row>
-    <row r="80" spans="1:13">
+      <c r="N79">
+        <v>2.1957751641341998E-2</v>
+      </c>
+      <c r="O79">
+        <v>20.493901531919196</v>
+      </c>
+      <c r="P79">
+        <v>3.5355339059327351</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
       <c r="A80">
         <v>5</v>
       </c>
@@ -2797,8 +3184,17 @@
       <c r="M80">
         <v>0.13645215505413938</v>
       </c>
-    </row>
-    <row r="81" spans="1:13">
+      <c r="N80">
+        <v>1.9541599190894775E-2</v>
+      </c>
+      <c r="O80">
+        <v>23.027798063204227</v>
+      </c>
+      <c r="P80">
+        <v>11.659888473872346</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
       <c r="A81">
         <v>6</v>
       </c>
@@ -2835,31 +3231,40 @@
       <c r="M81">
         <v>0.11750607962947444</v>
       </c>
-    </row>
-    <row r="82" spans="1:13">
+      <c r="N81">
+        <v>1.6829122401759111E-2</v>
+      </c>
+      <c r="O81">
+        <v>26.739362235131317</v>
+      </c>
+      <c r="P81">
+        <v>-58.429336728931908</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
       <c r="F82" s="7"/>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:16">
       <c r="F83" s="7"/>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:16">
       <c r="F84" s="7"/>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:16">
       <c r="F85" s="7"/>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:16">
       <c r="F86" s="7"/>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:16">
       <c r="F87" s="7"/>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:16">
       <c r="A89" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:16">
       <c r="A90">
         <v>1</v>
       </c>
@@ -2896,8 +3301,17 @@
       <c r="M90" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="91" spans="1:13">
+      <c r="N90" t="s">
+        <v>12</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16">
       <c r="A91">
         <v>2</v>
       </c>
@@ -2934,8 +3348,17 @@
       <c r="M91">
         <v>0.33454042397379119</v>
       </c>
-    </row>
-    <row r="92" spans="1:13">
+      <c r="N91">
+        <v>4.7864462630995315E-2</v>
+      </c>
+      <c r="O91">
+        <v>9.4015471033115929</v>
+      </c>
+      <c r="P91">
+        <v>-29.439126280128473</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16">
       <c r="A92">
         <v>3</v>
       </c>
@@ -2972,8 +3395,17 @@
       <c r="M92">
         <v>0.21881321384422309</v>
       </c>
-    </row>
-    <row r="93" spans="1:13">
+      <c r="N92">
+        <v>3.1327300510817779E-2</v>
+      </c>
+      <c r="O92">
+        <v>14.364467817602362</v>
+      </c>
+      <c r="P92">
+        <v>-23.894763506374016</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16">
       <c r="A93">
         <v>4</v>
       </c>
@@ -3010,8 +3442,17 @@
       <c r="M93">
         <v>0.15333099316873322</v>
       </c>
-    </row>
-    <row r="94" spans="1:13">
+      <c r="N93">
+        <v>2.1957751641342001E-2</v>
+      </c>
+      <c r="O93">
+        <v>20.493901531919192</v>
+      </c>
+      <c r="P93">
+        <v>10.606601717798215</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16">
       <c r="A94">
         <v>5</v>
       </c>
@@ -3048,8 +3489,17 @@
       <c r="M94">
         <v>0.13645215505413935</v>
       </c>
-    </row>
-    <row r="95" spans="1:13">
+      <c r="N94">
+        <v>1.9541599190894772E-2</v>
+      </c>
+      <c r="O94">
+        <v>23.02779806320423</v>
+      </c>
+      <c r="P94">
+        <v>-7.0014979872038756</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
       <c r="A95">
         <v>6</v>
       </c>
@@ -3086,34 +3536,43 @@
       <c r="M95">
         <v>0.11750607962947443</v>
       </c>
-    </row>
-    <row r="96" spans="1:13">
+      <c r="N95">
+        <v>1.6829122401759107E-2</v>
+      </c>
+      <c r="O95">
+        <v>26.73936223513132</v>
+      </c>
+      <c r="P95">
+        <v>57.886588660693135</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
       <c r="G96" s="7"/>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:16">
       <c r="G97" s="7"/>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:16">
       <c r="G98" s="7"/>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:16">
       <c r="G99" s="7"/>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:16">
       <c r="G100" s="7"/>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:16">
       <c r="G101" s="7"/>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:16">
       <c r="G102" s="7"/>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:16">
       <c r="A104" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:16">
       <c r="A105">
         <v>1</v>
       </c>
@@ -3150,8 +3609,17 @@
       <c r="M105" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="106" spans="1:13">
+      <c r="N105" t="s">
+        <v>12</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+      <c r="P105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16">
       <c r="A106">
         <v>2</v>
       </c>
@@ -3188,8 +3656,17 @@
       <c r="M106">
         <v>0.28299448810676792</v>
       </c>
-    </row>
-    <row r="107" spans="1:13">
+      <c r="N106">
+        <v>4.0502711819523245E-2</v>
+      </c>
+      <c r="O106">
+        <v>11.110367177515496</v>
+      </c>
+      <c r="P106">
+        <v>-7.9115327399748923</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16">
       <c r="A107">
         <v>3</v>
       </c>
@@ -3226,8 +3703,17 @@
       <c r="M107">
         <v>0.22055777583652264</v>
       </c>
-    </row>
-    <row r="108" spans="1:13">
+      <c r="N107">
+        <v>3.1576819899768765E-2</v>
+      </c>
+      <c r="O107">
+        <v>14.250960084910114</v>
+      </c>
+      <c r="P107">
+        <v>17.203998197422827</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16">
       <c r="A108">
         <v>4</v>
       </c>
@@ -3264,8 +3750,17 @@
       <c r="M108">
         <v>0.1668394770812722</v>
       </c>
-    </row>
-    <row r="109" spans="1:13">
+      <c r="N108">
+        <v>2.389117341249079E-2</v>
+      </c>
+      <c r="O108">
+        <v>18.835408049264373</v>
+      </c>
+      <c r="P108">
+        <v>24.008210866707781</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16">
       <c r="A109">
         <v>5</v>
       </c>
@@ -3302,8 +3797,17 @@
       <c r="M109">
         <v>0.13508500704918999</v>
       </c>
-    </row>
-    <row r="110" spans="1:13">
+      <c r="N109">
+        <v>1.9345880707383273E-2</v>
+      </c>
+      <c r="O109">
+        <v>23.260765782984457</v>
+      </c>
+      <c r="P109">
+        <v>-7.2920804365663887</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16">
       <c r="A110">
         <v>6</v>
       </c>
@@ -3339,6 +3843,15 @@
       </c>
       <c r="M110">
         <v>0.11568818658630427</v>
+      </c>
+      <c r="N110">
+        <v>1.6568837317538766E-2</v>
+      </c>
+      <c r="O110">
+        <v>27.159419298761375</v>
+      </c>
+      <c r="P110">
+        <v>-62.943319499480801</v>
       </c>
     </row>
     <row r="113" spans="1:19">
@@ -3920,7 +4433,7 @@
         <v>8.6580110389615494E-4</v>
       </c>
       <c r="M130">
-        <f t="shared" ref="M130:S130" si="5">C130-C115</f>
+        <f t="shared" ref="M130:R130" si="5">C130-C115</f>
         <v>1.7316020649351116E-3</v>
       </c>
       <c r="N130">
